--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vim-Cd44.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vim-Cd44.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>393.004196048423</v>
+        <v>636.0855713333334</v>
       </c>
       <c r="H2">
-        <v>393.004196048423</v>
+        <v>1908.256714</v>
       </c>
       <c r="I2">
-        <v>0.1473789195303096</v>
+        <v>0.20580936912678</v>
       </c>
       <c r="J2">
-        <v>0.1473789195303096</v>
+        <v>0.20580936912678</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N2">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q2">
-        <v>20134.13187400653</v>
+        <v>152077.8396948684</v>
       </c>
       <c r="R2">
-        <v>20134.13187400653</v>
+        <v>1368700.557253815</v>
       </c>
       <c r="S2">
-        <v>0.02080194700759865</v>
+        <v>0.08411378261722652</v>
       </c>
       <c r="T2">
-        <v>0.02080194700759865</v>
+        <v>0.08411378261722652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>393.004196048423</v>
+        <v>636.0855713333334</v>
       </c>
       <c r="H3">
-        <v>393.004196048423</v>
+        <v>1908.256714</v>
       </c>
       <c r="I3">
-        <v>0.1473789195303096</v>
+        <v>0.20580936912678</v>
       </c>
       <c r="J3">
-        <v>0.1473789195303096</v>
+        <v>0.20580936912678</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N3">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q3">
-        <v>45992.35687778421</v>
+        <v>74454.62374121374</v>
       </c>
       <c r="R3">
-        <v>45992.35687778421</v>
+        <v>670091.6136709237</v>
       </c>
       <c r="S3">
-        <v>0.0475178456420754</v>
+        <v>0.04118062203396206</v>
       </c>
       <c r="T3">
-        <v>0.0475178456420754</v>
+        <v>0.04118062203396206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>393.004196048423</v>
+        <v>636.0855713333334</v>
       </c>
       <c r="H4">
-        <v>393.004196048423</v>
+        <v>1908.256714</v>
       </c>
       <c r="I4">
-        <v>0.1473789195303096</v>
+        <v>0.20580936912678</v>
       </c>
       <c r="J4">
-        <v>0.1473789195303096</v>
+        <v>0.20580936912678</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N4">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q4">
-        <v>54366.04303901926</v>
+        <v>108871.6621692949</v>
       </c>
       <c r="R4">
-        <v>54366.04303901926</v>
+        <v>979844.959523654</v>
       </c>
       <c r="S4">
-        <v>0.05616927282425026</v>
+        <v>0.06021657950466799</v>
       </c>
       <c r="T4">
-        <v>0.05616927282425026</v>
+        <v>0.06021657950466799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>393.004196048423</v>
+        <v>636.0855713333334</v>
       </c>
       <c r="H5">
-        <v>393.004196048423</v>
+        <v>1908.256714</v>
       </c>
       <c r="I5">
-        <v>0.1473789195303096</v>
+        <v>0.20580936912678</v>
       </c>
       <c r="J5">
-        <v>0.1473789195303096</v>
+        <v>0.20580936912678</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N5">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q5">
-        <v>22155.00981613295</v>
+        <v>36699.50916035259</v>
       </c>
       <c r="R5">
-        <v>22155.00981613295</v>
+        <v>330295.5824431733</v>
       </c>
       <c r="S5">
-        <v>0.02288985405638534</v>
+        <v>0.02029838497092338</v>
       </c>
       <c r="T5">
-        <v>0.02288985405638534</v>
+        <v>0.02029838497092338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1037.54167387416</v>
+        <v>1037.896708333333</v>
       </c>
       <c r="H6">
-        <v>1037.54167387416</v>
+        <v>3113.690125</v>
       </c>
       <c r="I6">
-        <v>0.3890843212381426</v>
+        <v>0.3358178150670637</v>
       </c>
       <c r="J6">
-        <v>0.3890843212381426</v>
+        <v>0.3358178150670637</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N6">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q6">
-        <v>53154.6510103569</v>
+        <v>248144.4263841561</v>
       </c>
       <c r="R6">
-        <v>53154.6510103569</v>
+        <v>2233299.837457405</v>
       </c>
       <c r="S6">
-        <v>0.05491770096888787</v>
+        <v>0.1372479144918941</v>
       </c>
       <c r="T6">
-        <v>0.05491770096888787</v>
+        <v>0.1372479144918941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1037.54167387416</v>
+        <v>1037.896708333333</v>
       </c>
       <c r="H7">
-        <v>1037.54167387416</v>
+        <v>3113.690125</v>
       </c>
       <c r="I7">
-        <v>0.3890843212381426</v>
+        <v>0.3358178150670637</v>
       </c>
       <c r="J7">
-        <v>0.3890843212381426</v>
+        <v>0.3358178150670637</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N7">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q7">
-        <v>121421.0622181611</v>
+        <v>121487.1274932707</v>
       </c>
       <c r="R7">
-        <v>121421.0622181611</v>
+        <v>1093384.147439436</v>
       </c>
       <c r="S7">
-        <v>0.1254483936866116</v>
+        <v>0.06719415434400776</v>
       </c>
       <c r="T7">
-        <v>0.1254483936866116</v>
+        <v>0.06719415434400777</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1037.54167387416</v>
+        <v>1037.896708333333</v>
       </c>
       <c r="H8">
-        <v>1037.54167387416</v>
+        <v>3113.690125</v>
       </c>
       <c r="I8">
-        <v>0.3890843212381426</v>
+        <v>0.3358178150670637</v>
       </c>
       <c r="J8">
-        <v>0.3890843212381426</v>
+        <v>0.3358178150670637</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N8">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q8">
-        <v>143527.8194578579</v>
+        <v>177645.1862591846</v>
       </c>
       <c r="R8">
-        <v>143527.8194578579</v>
+        <v>1598806.676332661</v>
       </c>
       <c r="S8">
-        <v>0.1482883947101329</v>
+        <v>0.09825500289840043</v>
       </c>
       <c r="T8">
-        <v>0.1482883947101329</v>
+        <v>0.09825500289840046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1037.54167387416</v>
+        <v>1037.896708333333</v>
       </c>
       <c r="H9">
-        <v>1037.54167387416</v>
+        <v>3113.690125</v>
       </c>
       <c r="I9">
-        <v>0.3890843212381426</v>
+        <v>0.3358178150670637</v>
       </c>
       <c r="J9">
-        <v>0.3890843212381426</v>
+        <v>0.3358178150670637</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N9">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q9">
-        <v>58489.82326513577</v>
+        <v>59882.35148163451</v>
       </c>
       <c r="R9">
-        <v>58489.82326513577</v>
+        <v>538941.1633347105</v>
       </c>
       <c r="S9">
-        <v>0.06042983187251029</v>
+        <v>0.03312074333276133</v>
       </c>
       <c r="T9">
-        <v>0.06042983187251029</v>
+        <v>0.03312074333276133</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>602.873253572563</v>
+        <v>756.5536603333334</v>
       </c>
       <c r="H10">
-        <v>602.873253572563</v>
+        <v>2269.660981</v>
       </c>
       <c r="I10">
-        <v>0.2260810689011045</v>
+        <v>0.2447875546325883</v>
       </c>
       <c r="J10">
-        <v>0.2260810689011045</v>
+        <v>0.2447875546325883</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N10">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q10">
-        <v>30886.00506760434</v>
+        <v>180879.8241336703</v>
       </c>
       <c r="R10">
-        <v>30886.00506760434</v>
+        <v>1627918.417203033</v>
       </c>
       <c r="S10">
-        <v>0.03191044166757406</v>
+        <v>0.1000440710990393</v>
       </c>
       <c r="T10">
-        <v>0.03191044166757406</v>
+        <v>0.1000440710990393</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>602.873253572563</v>
+        <v>756.5536603333334</v>
       </c>
       <c r="H11">
-        <v>602.873253572563</v>
+        <v>2269.660981</v>
       </c>
       <c r="I11">
-        <v>0.2260810689011045</v>
+        <v>0.2447875546325883</v>
       </c>
       <c r="J11">
-        <v>0.2260810689011045</v>
+        <v>0.2447875546325883</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N11">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q11">
-        <v>70552.83915330979</v>
+        <v>88555.56651298075</v>
       </c>
       <c r="R11">
-        <v>70552.83915330979</v>
+        <v>797000.0986168267</v>
       </c>
       <c r="S11">
-        <v>0.07289295761480148</v>
+        <v>0.04897980985371371</v>
       </c>
       <c r="T11">
-        <v>0.07289295761480148</v>
+        <v>0.04897980985371371</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>602.873253572563</v>
+        <v>756.5536603333334</v>
       </c>
       <c r="H12">
-        <v>602.873253572563</v>
+        <v>2269.660981</v>
       </c>
       <c r="I12">
-        <v>0.2260810689011045</v>
+        <v>0.2447875546325883</v>
       </c>
       <c r="J12">
-        <v>0.2260810689011045</v>
+        <v>0.2447875546325883</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N12">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q12">
-        <v>83398.17635626755</v>
+        <v>129490.8393348707</v>
       </c>
       <c r="R12">
-        <v>83398.17635626755</v>
+        <v>1165417.554013837</v>
       </c>
       <c r="S12">
-        <v>0.08616435294799847</v>
+        <v>0.07162098260068232</v>
       </c>
       <c r="T12">
-        <v>0.08616435294799847</v>
+        <v>0.07162098260068232</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>602.873253572563</v>
+        <v>756.5536603333334</v>
       </c>
       <c r="H13">
-        <v>602.873253572563</v>
+        <v>2269.660981</v>
       </c>
       <c r="I13">
-        <v>0.2260810689011045</v>
+        <v>0.2447875546325883</v>
       </c>
       <c r="J13">
-        <v>0.2260810689011045</v>
+        <v>0.2447875546325883</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N13">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O13">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P13">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q13">
-        <v>33986.05659960546</v>
+        <v>43650.02012150884</v>
       </c>
       <c r="R13">
-        <v>33986.05659960546</v>
+        <v>392850.1810935795</v>
       </c>
       <c r="S13">
-        <v>0.03511331667073057</v>
+        <v>0.024142691079153</v>
       </c>
       <c r="T13">
-        <v>0.03511331667073057</v>
+        <v>0.024142691079153</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>633.2050945471</v>
+        <v>660.1181640000001</v>
       </c>
       <c r="H14">
-        <v>633.2050945471</v>
+        <v>1980.354492</v>
       </c>
       <c r="I14">
-        <v>0.2374556903304433</v>
+        <v>0.2135852611735681</v>
       </c>
       <c r="J14">
-        <v>0.2374556903304433</v>
+        <v>0.2135852611735681</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N14">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O14">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P14">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q14">
-        <v>32439.94594737925</v>
+        <v>157823.6464537803</v>
       </c>
       <c r="R14">
-        <v>32439.94594737925</v>
+        <v>1420412.818084022</v>
       </c>
       <c r="S14">
-        <v>0.03351592414063519</v>
+        <v>0.08729177055846378</v>
       </c>
       <c r="T14">
-        <v>0.03351592414063519</v>
+        <v>0.08729177055846379</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>633.2050945471</v>
+        <v>660.1181640000001</v>
       </c>
       <c r="H15">
-        <v>633.2050945471</v>
+        <v>1980.354492</v>
       </c>
       <c r="I15">
-        <v>0.2374556903304433</v>
+        <v>0.2135852611735681</v>
       </c>
       <c r="J15">
-        <v>0.2374556903304433</v>
+        <v>0.2135852611735681</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N15">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O15">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P15">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q15">
-        <v>74102.50317442679</v>
+        <v>77267.6692262289</v>
       </c>
       <c r="R15">
-        <v>74102.50317442679</v>
+        <v>695409.0230360602</v>
       </c>
       <c r="S15">
-        <v>0.07656035799362705</v>
+        <v>0.04273650878836156</v>
       </c>
       <c r="T15">
-        <v>0.07656035799362705</v>
+        <v>0.04273650878836156</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>633.2050945471</v>
+        <v>660.1181640000001</v>
       </c>
       <c r="H16">
-        <v>633.2050945471</v>
+        <v>1980.354492</v>
       </c>
       <c r="I16">
-        <v>0.2374556903304433</v>
+        <v>0.2135852611735681</v>
       </c>
       <c r="J16">
-        <v>0.2374556903304433</v>
+        <v>0.2135852611735681</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N16">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O16">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P16">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q16">
-        <v>87594.11672651027</v>
+        <v>112985.0526119881</v>
       </c>
       <c r="R16">
-        <v>87594.11672651027</v>
+        <v>1016865.473507893</v>
       </c>
       <c r="S16">
-        <v>0.09049946557043627</v>
+        <v>0.06249168303198455</v>
       </c>
       <c r="T16">
-        <v>0.09049946557043627</v>
+        <v>0.06249168303198455</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>633.2050945471</v>
+        <v>660.1181640000001</v>
       </c>
       <c r="H17">
-        <v>633.2050945471</v>
+        <v>1980.354492</v>
       </c>
       <c r="I17">
-        <v>0.2374556903304433</v>
+        <v>0.2135852611735681</v>
       </c>
       <c r="J17">
-        <v>0.2374556903304433</v>
+        <v>0.2135852611735681</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N17">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O17">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P17">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q17">
-        <v>35695.96769289427</v>
+        <v>38086.09045454636</v>
       </c>
       <c r="R17">
-        <v>35695.96769289427</v>
+        <v>342774.8140909172</v>
       </c>
       <c r="S17">
-        <v>0.03687994262574479</v>
+        <v>0.02106529879475818</v>
       </c>
       <c r="T17">
-        <v>0.03687994262574479</v>
+        <v>0.02106529879475818</v>
       </c>
     </row>
   </sheetData>
